--- a/data/reina-tekken-8-frame-data.xlsx
+++ b/data/reina-tekken-8-frame-data.xlsx
@@ -493,10 +493,8 @@
         <v>18</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="F2" t="n">
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -519,10 +517,8 @@
         <v>22</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F3" t="n">
+        <v>-4</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -545,10 +541,8 @@
         <v>15</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F4" t="n">
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -571,10 +565,8 @@
         <v>32</v>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+48</t>
-        </is>
+      <c r="F5" t="n">
+        <v>48</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -612,15 +604,11 @@
       <c r="D7" t="n">
         <v>64</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+20</t>
-        </is>
+      <c r="E7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -647,10 +635,8 @@
         <v>16</v>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F8" t="n">
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -697,10 +683,8 @@
         <v>18</v>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="F10" t="n">
+        <v>35</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -723,10 +707,8 @@
         <v>17</v>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+54</t>
-        </is>
+      <c r="F11" t="n">
+        <v>54</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -770,15 +752,11 @@
       <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -841,10 +819,8 @@
         <v>15</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+3c</t>
-        </is>
+      <c r="F16" t="n">
+        <v>3</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -906,15 +882,11 @@
       <c r="D19" t="n">
         <v>12</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-2</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -937,10 +909,8 @@
         <v>20</v>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="F20" t="n">
+        <v>-3</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -985,10 +955,8 @@
         <v>15</v>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+39</t>
-        </is>
+      <c r="F22" t="n">
+        <v>39</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
@@ -1015,10 +983,8 @@
         <v>13</v>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F23" t="n">
+        <v>4</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1041,10 +1007,8 @@
         <v>20</v>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F24" t="n">
+        <v>7</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1093,10 +1057,8 @@
         <v>15</v>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="F26" t="n">
+        <v>30</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1209,10 +1171,8 @@
         <v>20</v>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F31" t="n">
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1279,10 +1239,8 @@
         <v>27</v>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="F34" t="n">
+        <v>35</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1305,10 +1263,8 @@
         <v>32</v>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F35" t="n">
+        <v>7</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1331,10 +1287,8 @@
         <v>22</v>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F36" t="n">
+        <v>-4</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1399,10 +1353,8 @@
         <v>30</v>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+32</t>
-        </is>
+      <c r="F39" t="n">
+        <v>32</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1429,10 +1381,8 @@
         <v>32</v>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
+      <c r="F40" t="n">
+        <v>31</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
@@ -1543,10 +1493,8 @@
         <v>43</v>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F45" t="n">
+        <v>50</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -1569,10 +1517,8 @@
         <v>67</v>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F46" t="n">
+        <v>50</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1595,10 +1541,8 @@
         <v>19</v>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F47" t="n">
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1621,10 +1565,8 @@
         <v>20</v>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+54</t>
-        </is>
+      <c r="F48" t="n">
+        <v>54</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1651,10 +1593,8 @@
         <v>15</v>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+54</t>
-        </is>
+      <c r="F49" t="n">
+        <v>54</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -1681,10 +1621,8 @@
         <v>12</v>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F50" t="n">
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -1733,10 +1671,8 @@
         <v>16</v>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+49</t>
-        </is>
+      <c r="F52" t="n">
+        <v>49</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
@@ -1763,10 +1699,8 @@
         <v>24</v>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+32</t>
-        </is>
+      <c r="F53" t="n">
+        <v>32</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
@@ -1793,10 +1727,8 @@
         <v>26</v>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
+      <c r="F54" t="n">
+        <v>31</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
@@ -1842,15 +1774,11 @@
       <c r="D56" t="n">
         <v>11</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+25</t>
-        </is>
+      <c r="E56" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>25</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -1877,10 +1805,8 @@
         <v>15</v>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="F57" t="n">
+        <v>13</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -1907,10 +1833,8 @@
         <v>21</v>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F58" t="n">
+        <v>70</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1941,10 +1865,8 @@
         <v>13</v>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F59" t="n">
+        <v>17</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -1967,10 +1889,8 @@
         <v>20</v>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F60" t="n">
+        <v>17</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -1993,10 +1913,8 @@
         <v>18</v>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
+      <c r="F61" t="n">
+        <v>70</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2027,10 +1945,8 @@
         <v>15</v>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F62" t="n">
+        <v>17</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2079,10 +1995,8 @@
         <v>15</v>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="F64" t="n">
+        <v>16</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
@@ -2109,10 +2023,8 @@
         <v>25</v>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="F65" t="n">
+        <v>9</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
@@ -2191,10 +2103,8 @@
         <v>18</v>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F68" t="n">
+        <v>5</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2221,10 +2131,8 @@
         <v>18</v>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F69" t="n">
+        <v>17</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2317,10 +2225,8 @@
         <v>24</v>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+24</t>
-        </is>
+      <c r="F73" t="n">
+        <v>24</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2369,10 +2275,8 @@
         <v>21</v>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>+48</t>
-        </is>
+      <c r="F75" t="n">
+        <v>48</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -2395,10 +2299,8 @@
         <v>12</v>
       </c>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F76" t="n">
+        <v>17</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2425,10 +2327,8 @@
         <v>18</v>
       </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="F77" t="n">
+        <v>17</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2473,10 +2373,8 @@
         <v>20</v>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
+      <c r="F79" t="n">
+        <v>-15</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2547,10 +2445,8 @@
         <v>14</v>
       </c>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+32</t>
-        </is>
+      <c r="F82" t="n">
+        <v>32</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
@@ -2577,10 +2473,8 @@
         <v>26</v>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F83" t="n">
+        <v>21</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
@@ -2607,10 +2501,8 @@
         <v>13</v>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F84" t="n">
+        <v>8</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -2659,10 +2551,8 @@
         <v>20</v>
       </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F86" t="n">
+        <v>4</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
@@ -2689,10 +2579,8 @@
         <v>26</v>
       </c>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="F87" t="n">
+        <v>12</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -2719,10 +2607,8 @@
         <v>18</v>
       </c>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -2805,10 +2691,8 @@
         <v>13</v>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F92" t="n">
+        <v>8</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -2853,10 +2737,8 @@
         <v>16</v>
       </c>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F94" t="n">
+        <v>5</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -2901,10 +2783,8 @@
         <v>17</v>
       </c>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F96" t="n">
+        <v>-4</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -2927,10 +2807,8 @@
         <v>17</v>
       </c>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+70</t>
-        </is>
+      <c r="F97" t="n">
+        <v>70</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -2979,10 +2857,8 @@
         <v>16</v>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F99" t="n">
+        <v>4</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3027,10 +2903,8 @@
         <v>26</v>
       </c>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+18 </t>
-        </is>
+      <c r="F101" t="n">
+        <v>18</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3053,10 +2927,8 @@
         <v>23</v>
       </c>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F102" t="n">
+        <v>1</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3083,10 +2955,8 @@
         <v>11</v>
       </c>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="F103" t="n">
+        <v>35</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -3109,10 +2979,8 @@
         <v>15</v>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F104" t="n">
+        <v>3</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3157,10 +3025,8 @@
         <v>24</v>
       </c>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="F106" t="n">
+        <v>-1</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -3183,10 +3049,8 @@
         <v>17</v>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="F107" t="n">
+        <v>2</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -3229,10 +3093,8 @@
         <v>13</v>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="F109" t="n">
+        <v>13</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -3255,10 +3117,8 @@
         <v>18</v>
       </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="F110" t="n">
+        <v>9</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -3285,10 +3145,8 @@
         <v>15</v>
       </c>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F111" t="n">
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -3311,10 +3169,8 @@
         <v>14</v>
       </c>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="F112" t="n">
+        <v>14</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -3337,10 +3193,8 @@
         <v>22</v>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F113" t="n">
+        <v>21</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
@@ -3389,10 +3243,8 @@
         <v>17</v>
       </c>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>-1c</t>
-        </is>
+      <c r="F115" t="n">
+        <v>-1</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -3414,15 +3266,11 @@
       <c r="D116" t="n">
         <v>10</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -3444,15 +3292,11 @@
       <c r="D117" t="n">
         <v>10</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
@@ -3478,10 +3322,8 @@
       <c r="D118" t="n">
         <v>10</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="E118" t="n">
+        <v>17</v>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -3505,10 +3347,8 @@
         <v>12</v>
       </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="F119" t="n">
+        <v>24</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -3531,10 +3371,8 @@
         <v>10</v>
       </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F120" t="n">
+        <v>8</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -3557,10 +3395,8 @@
         <v>17</v>
       </c>
       <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F121" t="n">
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -3625,10 +3461,8 @@
         <v>22</v>
       </c>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F124" t="n">
+        <v>21</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -3671,10 +3505,8 @@
         <v>12</v>
       </c>
       <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F126" t="n">
+        <v>7</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -3697,10 +3529,8 @@
         <v>11</v>
       </c>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
+      <c r="F127" t="n">
+        <v>31</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -3745,10 +3575,8 @@
         <v>22</v>
       </c>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F129" t="n">
+        <v>70</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -3797,10 +3625,8 @@
         <v>35</v>
       </c>
       <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="F131" t="n">
+        <v>30</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -3823,10 +3649,8 @@
         <v>31</v>
       </c>
       <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F132" t="n">
+        <v>21</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -3923,10 +3747,8 @@
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F136" t="n">
+        <v>8</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -3971,10 +3793,8 @@
         <v>20</v>
       </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F138" t="n">
+        <v>50</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -3997,10 +3817,8 @@
         <v>16</v>
       </c>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F139" t="n">
+        <v>50</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -4023,10 +3841,8 @@
         <v>13</v>
       </c>
       <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="F140" t="n">
+        <v>11</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
@@ -4053,10 +3869,8 @@
         <v>14</v>
       </c>
       <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+32</t>
-        </is>
+      <c r="F141" t="n">
+        <v>32</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
@@ -4083,10 +3897,8 @@
         <v>26</v>
       </c>
       <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F142" t="n">
+        <v>21</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
@@ -4113,10 +3925,8 @@
         <v>13</v>
       </c>
       <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F143" t="n">
+        <v>8</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -4165,10 +3975,8 @@
         <v>20</v>
       </c>
       <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F145" t="n">
+        <v>4</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
@@ -4195,10 +4003,8 @@
         <v>26</v>
       </c>
       <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="F146" t="n">
+        <v>12</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
@@ -4225,10 +4031,8 @@
         <v>18</v>
       </c>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F147" t="n">
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -4311,10 +4115,8 @@
         <v>13</v>
       </c>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F151" t="n">
+        <v>8</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -4359,10 +4161,8 @@
         <v>16</v>
       </c>
       <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="F153" t="n">
+        <v>5</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -4407,10 +4207,8 @@
         <v>17</v>
       </c>
       <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="F155" t="n">
+        <v>-4</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -4433,10 +4231,8 @@
         <v>17</v>
       </c>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+70</t>
-        </is>
+      <c r="F156" t="n">
+        <v>70</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -4485,10 +4281,8 @@
         <v>16</v>
       </c>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="F158" t="n">
+        <v>4</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -4533,10 +4327,8 @@
         <v>26</v>
       </c>
       <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+18 </t>
-        </is>
+      <c r="F160" t="n">
+        <v>18</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -4559,10 +4351,8 @@
         <v>23</v>
       </c>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F161" t="n">
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
@@ -4589,10 +4379,8 @@
         <v>11</v>
       </c>
       <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+35</t>
-        </is>
+      <c r="F162" t="n">
+        <v>35</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -4615,10 +4403,8 @@
         <v>15</v>
       </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="F163" t="n">
+        <v>3</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -4663,10 +4449,8 @@
         <v>24</v>
       </c>
       <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="F165" t="n">
+        <v>-1</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -4689,10 +4473,8 @@
         <v>17</v>
       </c>
       <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="F166" t="n">
+        <v>2</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
@@ -4735,10 +4517,8 @@
         <v>13</v>
       </c>
       <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>+13</t>
-        </is>
+      <c r="F168" t="n">
+        <v>13</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -4761,10 +4541,8 @@
         <v>18</v>
       </c>
       <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="F169" t="n">
+        <v>9</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
@@ -4791,10 +4569,8 @@
         <v>15</v>
       </c>
       <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="F170" t="n">
+        <v>1</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -4817,10 +4593,8 @@
         <v>14</v>
       </c>
       <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="F171" t="n">
+        <v>14</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
@@ -4843,10 +4617,8 @@
         <v>22</v>
       </c>
       <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F172" t="n">
+        <v>21</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
@@ -4895,10 +4667,8 @@
         <v>17</v>
       </c>
       <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>-1c</t>
-        </is>
+      <c r="F174" t="n">
+        <v>-1</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -4920,15 +4690,11 @@
       <c r="D175" t="n">
         <v>10</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
@@ -4950,15 +4716,11 @@
       <c r="D176" t="n">
         <v>10</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
@@ -4984,10 +4746,8 @@
       <c r="D177" t="n">
         <v>10</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="E177" t="n">
+        <v>17</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -5011,10 +4771,8 @@
         <v>12</v>
       </c>
       <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="F178" t="n">
+        <v>24</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
@@ -5037,10 +4795,8 @@
         <v>10</v>
       </c>
       <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F179" t="n">
+        <v>8</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
@@ -5063,10 +4819,8 @@
         <v>17</v>
       </c>
       <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>+0</t>
-        </is>
+      <c r="F180" t="n">
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
@@ -5131,10 +4885,8 @@
         <v>22</v>
       </c>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F183" t="n">
+        <v>21</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
@@ -5177,10 +4929,8 @@
         <v>12</v>
       </c>
       <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F185" t="n">
+        <v>7</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -5203,10 +4953,8 @@
         <v>11</v>
       </c>
       <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>+31</t>
-        </is>
+      <c r="F186" t="n">
+        <v>31</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
@@ -5251,10 +4999,8 @@
         <v>22</v>
       </c>
       <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>KND</t>
-        </is>
+      <c r="F188" t="n">
+        <v>70</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
@@ -5303,10 +5049,8 @@
         <v>35</v>
       </c>
       <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>+30</t>
-        </is>
+      <c r="F190" t="n">
+        <v>30</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -5329,10 +5073,8 @@
         <v>31</v>
       </c>
       <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>+21</t>
-        </is>
+      <c r="F191" t="n">
+        <v>21</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
@@ -5429,10 +5171,8 @@
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="F195" t="n">
+        <v>8</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
@@ -5477,10 +5217,8 @@
         <v>20</v>
       </c>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F197" t="n">
+        <v>50</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
@@ -5503,10 +5241,8 @@
         <v>16</v>
       </c>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>+50</t>
-        </is>
+      <c r="F198" t="n">
+        <v>50</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
@@ -5529,10 +5265,8 @@
         <v>13</v>
       </c>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>+11</t>
-        </is>
+      <c r="F199" t="n">
+        <v>11</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">

--- a/data/reina-tekken-8-frame-data.xlsx
+++ b/data/reina-tekken-8-frame-data.xlsx
@@ -605,7 +605,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F19" t="n">
         <v>-2</v>
@@ -1775,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
         <v>25</v>
@@ -3267,7 +3267,7 @@
         <v>10</v>
       </c>
       <c r="E116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
         <v>8</v>
@@ -3293,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F117" t="n">
         <v>8</v>
@@ -3323,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -4691,7 +4691,7 @@
         <v>10</v>
       </c>
       <c r="E175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
         <v>8</v>
@@ -4717,7 +4717,7 @@
         <v>10</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F176" t="n">
         <v>8</v>
@@ -4747,7 +4747,7 @@
         <v>10</v>
       </c>
       <c r="E177" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
